--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H2">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N2">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O2">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P2">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q2">
-        <v>3.974400638595778</v>
+        <v>1.248368918284444</v>
       </c>
       <c r="R2">
-        <v>35.769605747362</v>
+        <v>11.23532026456</v>
       </c>
       <c r="S2">
-        <v>0.006519233259794585</v>
+        <v>0.001876993141616497</v>
       </c>
       <c r="T2">
-        <v>0.006519233259794584</v>
+        <v>0.001876993141616497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H3">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q3">
-        <v>48.38877260927489</v>
+        <v>29.76644233704889</v>
       </c>
       <c r="R3">
-        <v>435.4989534834741</v>
+        <v>267.89798103344</v>
       </c>
       <c r="S3">
-        <v>0.07937239460249246</v>
+        <v>0.04475552643023529</v>
       </c>
       <c r="T3">
-        <v>0.07937239460249246</v>
+        <v>0.0447555264302353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H4">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N4">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q4">
-        <v>43.54102586531688</v>
+        <v>68.03638190977779</v>
       </c>
       <c r="R4">
-        <v>391.869232787852</v>
+        <v>612.3274371880001</v>
       </c>
       <c r="S4">
-        <v>0.07142060647590892</v>
+        <v>0.1022965409941069</v>
       </c>
       <c r="T4">
-        <v>0.07142060647590892</v>
+        <v>0.102296540994107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -723,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H5">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I5">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J5">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N5">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O5">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P5">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q5">
-        <v>6.34366703320111</v>
+        <v>3.239137305222779</v>
       </c>
       <c r="R5">
-        <v>57.09300329881</v>
+        <v>29.152235747005</v>
       </c>
       <c r="S5">
-        <v>0.01040555516982778</v>
+        <v>0.004870225794320832</v>
       </c>
       <c r="T5">
-        <v>0.01040555516982778</v>
+        <v>0.004870225794320832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -785,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +806,22 @@
         <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q6">
-        <v>77.23485614348556</v>
+        <v>77.23485614348557</v>
       </c>
       <c r="R6">
-        <v>695.11370529137</v>
+        <v>695.1137052913701</v>
       </c>
       <c r="S6">
-        <v>0.1266887988333155</v>
+        <v>0.1161269662771494</v>
       </c>
       <c r="T6">
-        <v>0.1266887988333155</v>
+        <v>0.1161269662771494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N7">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q7">
-        <v>69.49721366569554</v>
+        <v>176.5336989158612</v>
       </c>
       <c r="R7">
-        <v>625.47492299126</v>
+        <v>1588.80329024275</v>
       </c>
       <c r="S7">
-        <v>0.1139966973617763</v>
+        <v>0.2654283820079565</v>
       </c>
       <c r="T7">
-        <v>0.1139966973617763</v>
+        <v>0.2654283820079566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H8">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I8">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J8">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N8">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O8">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P8">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q8">
-        <v>14.944874682578</v>
+        <v>3.894799510111222</v>
       </c>
       <c r="R8">
-        <v>134.503872143202</v>
+        <v>35.053195591001</v>
       </c>
       <c r="S8">
-        <v>0.02451416778368572</v>
+        <v>0.00585605093284158</v>
       </c>
       <c r="T8">
-        <v>0.02451416778368571</v>
+        <v>0.005856050932841582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H9">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I9">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J9">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +992,22 @@
         <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q9">
-        <v>181.9555219639061</v>
+        <v>92.86864109963045</v>
       </c>
       <c r="R9">
-        <v>1637.599697675154</v>
+        <v>835.817769896674</v>
       </c>
       <c r="S9">
-        <v>0.2984627365120111</v>
+        <v>0.1396332445178136</v>
       </c>
       <c r="T9">
-        <v>0.2984627365120111</v>
+        <v>0.1396332445178136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1015,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H10">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N10">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q10">
-        <v>163.726617993388</v>
+        <v>212.2674339698389</v>
       </c>
       <c r="R10">
-        <v>1473.539561940492</v>
+        <v>1910.40690572855</v>
       </c>
       <c r="S10">
-        <v>0.268561755745213</v>
+        <v>0.3191560699039593</v>
       </c>
       <c r="T10">
-        <v>0.268561755745213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.004706</v>
-      </c>
-      <c r="H11">
-        <v>0.014118</v>
-      </c>
-      <c r="I11">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J11">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.3116673333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.935002</v>
-      </c>
-      <c r="O11">
-        <v>0.0414413620607491</v>
-      </c>
-      <c r="P11">
-        <v>0.04144136206074909</v>
-      </c>
-      <c r="Q11">
-        <v>0.001466706470666667</v>
-      </c>
-      <c r="R11">
-        <v>0.013200358236</v>
-      </c>
-      <c r="S11">
-        <v>2.405847441012995E-06</v>
-      </c>
-      <c r="T11">
-        <v>2.405847441012995E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.004706</v>
-      </c>
-      <c r="H12">
-        <v>0.014118</v>
-      </c>
-      <c r="I12">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J12">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.794584666666667</v>
-      </c>
-      <c r="N12">
-        <v>11.383754</v>
-      </c>
-      <c r="O12">
-        <v>0.5045532214096876</v>
-      </c>
-      <c r="P12">
-        <v>0.5045532214096876</v>
-      </c>
-      <c r="Q12">
-        <v>0.01785731544133334</v>
-      </c>
-      <c r="R12">
-        <v>0.160715838972</v>
-      </c>
-      <c r="S12">
-        <v>2.92914618685537E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.92914618685537E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.004706</v>
-      </c>
-      <c r="H13">
-        <v>0.014118</v>
-      </c>
-      <c r="I13">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J13">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.414430666666667</v>
-      </c>
-      <c r="N13">
-        <v>10.243292</v>
-      </c>
-      <c r="O13">
-        <v>0.4540054165295632</v>
-      </c>
-      <c r="P13">
-        <v>0.4540054165295632</v>
-      </c>
-      <c r="Q13">
-        <v>0.01606831071733333</v>
-      </c>
-      <c r="R13">
-        <v>0.144614796456</v>
-      </c>
-      <c r="S13">
-        <v>2.635694666508615E-05</v>
-      </c>
-      <c r="T13">
-        <v>2.635694666508615E-05</v>
+        <v>0.3191560699039594</v>
       </c>
     </row>
   </sheetData>
